--- a/GsEPWv8-5-MVC/RptTemplates/IB_INBOUND_ACK.xlsx
+++ b/GsEPWv8-5-MVC/RptTemplates/IB_INBOUND_ACK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROD-HOSTING\Cdc3plPro.gensoftcorp.com\RptTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROD-SOURCE\GsEPWv8-5-MVC-COMBO_V1\GsEPWv8-5-MVC-COMBO\GsEPWv8-5-MVC\RptTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,6 +27,7 @@
     <definedName name="__DATA_itm_size">Template!$H$1</definedName>
     <definedName name="__DATA_length">Template!$J$1</definedName>
     <definedName name="__Data_po_num">Template!$E$1</definedName>
+    <definedName name="__DATA_serial">Template!$O$1</definedName>
     <definedName name="__Data_tot_ctn">Template!$C$1</definedName>
     <definedName name="__Data_tot_qty">Template!$B$1</definedName>
     <definedName name="__Data_TotalCtns">Template!$C$7</definedName>
@@ -41,8 +42,9 @@
     <definedName name="__HDATA_ib_doc_id">SHT_IB_ACK!$A$2</definedName>
     <definedName name="__HDATA_req_num">SHT_IB_ACK!$I$2</definedName>
     <definedName name="__HDATA_vend_id">SHT_IB_ACK!$M$2</definedName>
-    <definedName name="__TEMPLATE_Data">Template!$A$1:$N$1</definedName>
+    <definedName name="__TEMPLATE_Data">Template!$A$1:$O$1</definedName>
     <definedName name="__TEMPLATE_DataLine">SHT_IB_ACK!$A$5</definedName>
+    <definedName name="Serial">SHT_IB_ACK!$O$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Color</t>
   </si>
@@ -145,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Serial</t>
   </si>
 </sst>
 </file>
@@ -280,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -304,15 +309,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -333,6 +329,43 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -346,7 +379,7 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -375,7 +408,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -422,25 +454,36 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -511,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -546,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -737,7 +780,7 @@
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:N5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +798,7 @@
     <col min="11" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" style="3" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.85546875" style="4"/>
@@ -766,22 +809,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
       <c r="O1" s="17"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -795,33 +838,35 @@
       <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
@@ -832,43 +877,45 @@
       <c r="Y2" s="15"/>
     </row>
     <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="35" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
@@ -880,29 +927,30 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="24" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
@@ -914,22 +962,22 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="18"/>
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="9"/>
@@ -942,21 +990,21 @@
       <c r="Y5" s="14"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O7" s="1"/>
@@ -997,8 +1045,16 @@
       <c r="AV23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A5:N5"/>
+  <mergeCells count="19">
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1009,13 +1065,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1024,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,57 +1087,59 @@
     <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="1" spans="1:15" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -1101,7 +1152,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
